--- a/documentation/components/coil-winder-bom.xlsx
+++ b/documentation/components/coil-winder-bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmart\Documents\Git\coil-winder\documentation\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF309E2-AD4E-4554-A628-F34FA43D16AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B209ADCC-63A3-47FD-87C3-0D1936F02E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementos_comprados" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Componente</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>https://www.hta3d.com/es/bobina-filamento-pla-3d-1-75mm-1kg</t>
+  </si>
+  <si>
+    <t>https://www.makerbeam.com/150mm-4p-clear-makerbeamxl-15mmx15mm.html</t>
   </si>
 </sst>
 </file>
@@ -739,8 +742,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:F20" totalsRowCount="1" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:F21" totalsRowCount="1" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:F20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Componente" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="5"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cantidad" dataDxfId="10" totalsRowDxfId="4"/>
@@ -1050,17 +1053,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="20" customWidth="1"/>
     <col min="6" max="6" width="255.140625" bestFit="1" customWidth="1"/>
@@ -1352,7 +1355,7 @@
         <v>9.25</v>
       </c>
       <c r="E14" s="15">
-        <f t="shared" ref="E14:E19" si="1">B14*D14</f>
+        <f t="shared" ref="E14:E20" si="1">B14*D14</f>
         <v>18.5</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1382,7 +1385,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
@@ -1391,95 +1394,112 @@
         <v>50</v>
       </c>
       <c r="D16" s="15">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" ref="E16" si="2">B16*D16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="15">
         <v>6.5</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D18" s="15">
         <v>4.5</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="15">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="15">
         <v>6.95</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <f t="shared" si="1"/>
         <v>13.9</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B20" s="10">
         <v>0.7</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="15">
         <v>13.5</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <f t="shared" si="1"/>
         <v>9.4499999999999993</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F20" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18">
+      <c r="B21" s="11"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18">
         <f>SUBTOTAL(109,Tabla2[Precio total])</f>
-        <v>196.26</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+        <v>201.26</v>
+      </c>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" s="19"/>
@@ -1488,6 +1508,10 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1502,19 +1526,20 @@
     <hyperlink ref="F9" r:id="rId8" xr:uid="{B3BA7847-E8F4-448C-93FB-D548028629CF}"/>
     <hyperlink ref="F14" r:id="rId9" xr:uid="{EF1E1CAE-0CD2-4C3C-94B6-63F5B31A63F6}"/>
     <hyperlink ref="F15" r:id="rId10" xr:uid="{9BD0A88A-7D41-4618-90C0-658B15DBEE44}"/>
-    <hyperlink ref="F16" r:id="rId11" xr:uid="{61341CC5-802C-4527-A878-A767F481E98A}"/>
-    <hyperlink ref="F17" r:id="rId12" xr:uid="{AFEAC4BD-9920-46D0-B37C-AC9B79EED0B8}"/>
-    <hyperlink ref="F18" r:id="rId13" xr:uid="{573FE42F-FD09-4A7D-8A5A-7F29471A818A}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{61341CC5-802C-4527-A878-A767F481E98A}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{AFEAC4BD-9920-46D0-B37C-AC9B79EED0B8}"/>
+    <hyperlink ref="F19" r:id="rId13" xr:uid="{573FE42F-FD09-4A7D-8A5A-7F29471A818A}"/>
     <hyperlink ref="F10" r:id="rId14" xr:uid="{330A8CC1-0F18-4515-90BF-967D6216A8A0}"/>
     <hyperlink ref="F11" r:id="rId15" xr:uid="{98D41264-F8A3-4634-87D5-C360E9C4A700}"/>
     <hyperlink ref="F12" r:id="rId16" xr:uid="{061A5902-13EB-4F95-A286-025E70A783BE}"/>
     <hyperlink ref="F13" r:id="rId17" xr:uid="{4DF2C04E-7299-47CA-9DF5-20F3B93FC7D2}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{C67BAA6D-7ED5-43AB-AD89-C1612FF58FB5}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{C67BAA6D-7ED5-43AB-AD89-C1612FF58FB5}"/>
+    <hyperlink ref="F16" r:id="rId19" xr:uid="{40BDE5C6-289F-42C5-9BEB-6226F493AEAB}"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
